--- a/data/trans_orig/IP1003-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2939303C-624C-487E-B476-5AC2F14C2EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AEF9F75-28C0-48F5-AFC5-5EE7573DDA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7C3A56D7-BAFC-435E-9446-F213F11E277A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1D811DC2-233F-440C-8B8F-A1E5AAFF0C99}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,18 +68,135 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>89,01%</t>
-  </si>
-  <si>
     <t>95,0%</t>
   </si>
   <si>
@@ -101,18 +218,12 @@
     <t>95,14%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>7,49%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
     <t>5,62%</t>
   </si>
   <si>
@@ -131,58 +242,61 @@
     <t>8,67%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,120 +356,6 @@
     <t>7,84%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
     <t>93,09%</t>
   </si>
   <si>
@@ -413,6 +413,93 @@
     <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
     <t>91,89%</t>
   </si>
   <si>
@@ -461,58 +548,52 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>94,11%</t>
@@ -563,87 +644,6 @@
     <t>7,25%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
     <t>93,9%</t>
   </si>
   <si>
@@ -695,6 +695,84 @@
     <t>Menores según si padecen alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
     <t>92,99%</t>
   </si>
   <si>
@@ -749,52 +827,58 @@
     <t>8,45%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>95,98%</t>
@@ -839,90 +923,6 @@
     <t>6,47%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
     <t>94,82%</t>
   </si>
   <si>
@@ -980,6 +980,90 @@
     <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
     <t>90,76%</t>
   </si>
   <si>
@@ -1034,46 +1118,34 @@
     <t>11,14%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>91,92%</t>
@@ -1110,78 +1182,6 @@
   </si>
   <si>
     <t>3,98%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
   </si>
   <si>
     <t>91,8%</t>
@@ -1621,7 +1621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB45249-BB15-4560-AA14-3D6EDA09AE01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731EF2B-EBFD-4CDF-AB24-7ED144DF17B5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1739,10 +1739,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>196243</v>
+        <v>23140</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1754,10 +1754,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>184189</v>
+        <v>18666</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1769,10 +1769,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>592</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>380432</v>
+        <v>41806</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1790,10 +1790,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>15899</v>
+        <v>2304</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1805,10 +1805,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>10974</v>
+        <v>4058</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1820,10 +1820,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>26873</v>
+        <v>6362</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1841,10 +1841,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1856,10 +1856,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1871,10 +1871,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1933,10 +1933,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,13 +1951,13 @@
         <v>11197</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -1966,13 +1966,13 @@
         <v>7819</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -1981,13 +1981,13 @@
         <v>19016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,55 +2043,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D10" s="7">
-        <v>196220</v>
+        <v>196243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="I10" s="7">
-        <v>197964</v>
+        <v>184189</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="N10" s="7">
-        <v>394185</v>
+        <v>380432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,25 +2100,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>11604</v>
+        <v>15899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>11351</v>
+        <v>10974</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2130,10 +2130,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>22954</v>
+        <v>26873</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -2151,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2166,10 +2166,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2181,10 +2181,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2204,10 +2204,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="D13" s="7">
-        <v>23140</v>
+        <v>140694</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2219,10 +2219,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="I13" s="7">
-        <v>18666</v>
+        <v>131380</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2234,10 +2234,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>436</v>
       </c>
       <c r="N13" s="7">
-        <v>41806</v>
+        <v>272074</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -2255,10 +2255,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>2304</v>
+        <v>8963</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -2270,10 +2270,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>4058</v>
+        <v>6437</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -2285,10 +2285,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>6362</v>
+        <v>15400</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2306,10 +2306,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2321,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2336,10 +2336,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2359,10 +2359,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7">
-        <v>140694</v>
+        <v>196220</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -2374,10 +2374,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="I16" s="7">
-        <v>131380</v>
+        <v>197964</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -2389,10 +2389,10 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>436</v>
+        <v>548</v>
       </c>
       <c r="N16" s="7">
-        <v>272074</v>
+        <v>394185</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -2410,10 +2410,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>8963</v>
+        <v>11604</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -2425,10 +2425,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>6437</v>
+        <v>11351</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -2440,10 +2440,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N17" s="7">
-        <v>15400</v>
+        <v>22954</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2461,10 +2461,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2476,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2491,10 +2491,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2679,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771A3572-8835-421A-954F-CD46FE878760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29195B-D8D9-4176-A960-50D001909EA4}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2797,10 +2797,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>203979</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>124</v>
@@ -2809,37 +2809,37 @@
         <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21477</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="7">
-        <v>307</v>
-      </c>
-      <c r="I4" s="7">
-        <v>198734</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>46932</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="7">
-        <v>603</v>
-      </c>
-      <c r="N4" s="7">
-        <v>402712</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,49 +2848,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>17999</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>896</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6664</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>896</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M5" s="7">
-        <v>35</v>
-      </c>
-      <c r="N5" s="7">
-        <v>24664</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2914,10 +2914,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2929,10 +2929,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2958,13 +2958,13 @@
         <v>120636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -2973,13 +2973,13 @@
         <v>104978</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>318</v>
@@ -2988,13 +2988,13 @@
         <v>225614</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3009,13 @@
         <v>7007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -3024,13 +3024,13 @@
         <v>9040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3039,13 +3039,13 @@
         <v>16047</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,55 +3101,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="D10" s="7">
-        <v>194882</v>
+        <v>203979</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7">
+        <v>307</v>
+      </c>
+      <c r="I10" s="7">
+        <v>198734</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>603</v>
+      </c>
+      <c r="N10" s="7">
+        <v>402712</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="7">
-        <v>263</v>
-      </c>
-      <c r="I10" s="7">
-        <v>200783</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="7">
-        <v>528</v>
-      </c>
-      <c r="N10" s="7">
-        <v>395665</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,49 +3158,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>12200</v>
+        <v>17999</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6664</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>35</v>
+      </c>
+      <c r="N11" s="7">
+        <v>24664</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9517</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" s="7">
-        <v>28</v>
-      </c>
-      <c r="N11" s="7">
-        <v>21717</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3224,10 +3224,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3239,10 +3239,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3262,49 +3262,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>157523</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="7">
+        <v>229</v>
+      </c>
+      <c r="I13" s="7">
+        <v>147140</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="7">
+        <v>470</v>
+      </c>
+      <c r="N13" s="7">
+        <v>304663</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21477</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13" s="7">
-        <v>53</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46932</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,46 +3313,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>8462</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7072</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>896</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>25</v>
+      </c>
+      <c r="N14" s="7">
+        <v>15534</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>896</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>184</v>
@@ -3364,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3379,10 +3379,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154212</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3394,10 +3394,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>495</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320197</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3417,10 +3417,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D16" s="7">
-        <v>157523</v>
+        <v>194882</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>185</v>
@@ -3429,16 +3429,16 @@
         <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7">
+        <v>263</v>
+      </c>
+      <c r="I16" s="7">
+        <v>200783</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="H16" s="7">
-        <v>229</v>
-      </c>
-      <c r="I16" s="7">
-        <v>147140</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>188</v>
@@ -3447,10 +3447,10 @@
         <v>189</v>
       </c>
       <c r="M16" s="7">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="N16" s="7">
-        <v>304663</v>
+        <v>395665</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>190</v>
@@ -3468,28 +3468,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>8462</v>
+        <v>12200</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9517</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7072</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>196</v>
@@ -3498,10 +3498,10 @@
         <v>197</v>
       </c>
       <c r="M17" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>15534</v>
+        <v>21717</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>198</v>
@@ -3519,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3534,10 +3534,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154212</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3549,10 +3549,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320197</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3608,7 +3608,7 @@
         <v>1375586</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>207</v>
@@ -3659,7 +3659,7 @@
         <v>78857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>215</v>
@@ -3737,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0548E5-2F6B-43D9-915C-613CD8356C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072E9EB3-BF4B-4512-A1C3-128A326391D7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,49 +3855,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>208642</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20461</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="7">
-        <v>316</v>
-      </c>
-      <c r="I4" s="7">
-        <v>195655</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7">
+        <v>52</v>
+      </c>
+      <c r="N4" s="7">
+        <v>46035</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M4" s="7">
-        <v>626</v>
-      </c>
-      <c r="N4" s="7">
-        <v>404297</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +3906,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>15717</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2066</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2066</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11592</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M5" s="7">
-        <v>40</v>
-      </c>
-      <c r="N5" s="7">
-        <v>27309</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,10 +3957,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3972,10 +3972,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3987,10 +3987,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4016,13 +4016,13 @@
         <v>113779</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>159</v>
@@ -4031,13 +4031,13 @@
         <v>108522</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -4046,13 +4046,13 @@
         <v>222300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4067,13 @@
         <v>8723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4082,13 +4082,13 @@
         <v>2658</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -4097,13 +4097,13 @@
         <v>11382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,55 +4159,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="D10" s="7">
-        <v>197466</v>
+        <v>208642</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="7">
+        <v>316</v>
+      </c>
+      <c r="I10" s="7">
+        <v>195655</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M10" s="7">
+        <v>626</v>
+      </c>
+      <c r="N10" s="7">
+        <v>404297</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H10" s="7">
-        <v>268</v>
-      </c>
-      <c r="I10" s="7">
-        <v>197328</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M10" s="7">
-        <v>547</v>
-      </c>
-      <c r="N10" s="7">
-        <v>394794</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,49 +4216,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>8270</v>
+        <v>15717</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11592</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M11" s="7">
+        <v>40</v>
+      </c>
+      <c r="N11" s="7">
+        <v>27309</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10092</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" s="7">
-        <v>24</v>
-      </c>
-      <c r="N11" s="7">
-        <v>18362</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,10 +4267,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4282,10 +4282,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4297,10 +4297,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4320,49 +4320,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>160783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="7">
+        <v>250</v>
+      </c>
+      <c r="I13" s="7">
+        <v>150274</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20461</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>489</v>
+      </c>
+      <c r="N13" s="7">
+        <v>311057</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46035</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,49 +4371,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>5890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>2066</v>
+        <v>5723</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>2066</v>
+        <v>11613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,10 +4422,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4437,10 +4437,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4452,10 +4452,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4475,49 +4475,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="D16" s="7">
-        <v>160783</v>
+        <v>197466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="I16" s="7">
-        <v>150274</v>
+        <v>197328</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="N16" s="7">
-        <v>311057</v>
+        <v>394794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,40 +4526,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>5890</v>
+        <v>8270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>5723</v>
+        <v>10092</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>11613</v>
+        <v>18362</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>291</v>
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4592,10 +4592,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4607,10 +4607,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4795,7 +4795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21CB0A0-3808-4B80-9219-BAA37CD70D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896D6618-BF45-481C-BE63-D2071EED5CCD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,10 +4913,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>313</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>227076</v>
+        <v>10605</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>313</v>
@@ -4925,37 +4925,37 @@
         <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13954</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H4" s="7">
-        <v>260</v>
-      </c>
-      <c r="I4" s="7">
-        <v>177656</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="7">
+        <v>41</v>
+      </c>
+      <c r="N4" s="7">
+        <v>24559</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="M4" s="7">
-        <v>573</v>
-      </c>
-      <c r="N4" s="7">
-        <v>404732</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,49 +4964,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>23110</v>
+        <v>2093</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2833</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4926</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14696</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M5" s="7">
-        <v>50</v>
-      </c>
-      <c r="N5" s="7">
-        <v>37806</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,10 +5015,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5030,10 +5030,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5045,10 +5045,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5074,13 +5074,13 @@
         <v>103939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>156</v>
@@ -5089,13 +5089,13 @@
         <v>97082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -5107,10 +5107,10 @@
         <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5125,13 @@
         <v>9755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5140,13 +5140,13 @@
         <v>6813</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5158,10 +5158,10 @@
         <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,55 +5217,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>160882</v>
+        <v>227076</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="7">
+        <v>260</v>
+      </c>
+      <c r="I10" s="7">
+        <v>177656</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>573</v>
+      </c>
+      <c r="N10" s="7">
+        <v>404732</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="7">
-        <v>230</v>
-      </c>
-      <c r="I10" s="7">
-        <v>164710</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="M10" s="7">
-        <v>449</v>
-      </c>
-      <c r="N10" s="7">
-        <v>325591</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +5274,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>14134</v>
+        <v>23110</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14696</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6606</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N11" s="7">
-        <v>20740</v>
+        <v>37806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +5325,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5340,10 +5340,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171316</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5355,10 +5355,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346331</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5378,43 +5378,43 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7">
-        <v>10605</v>
+        <v>162146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I13" s="7">
-        <v>13954</v>
+        <v>161014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="N13" s="7">
-        <v>24559</v>
+        <v>323160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>362</v>
@@ -5429,49 +5429,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>2093</v>
+        <v>10287</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6045</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2833</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>20</v>
+      </c>
+      <c r="N14" s="7">
+        <v>16332</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4926</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,10 +5480,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>172433</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5495,10 +5495,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167059</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5510,10 +5510,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>448</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>339492</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5533,49 +5533,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D16" s="7">
-        <v>162146</v>
+        <v>160882</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>371</v>
       </c>
       <c r="H16" s="7">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I16" s="7">
-        <v>161014</v>
+        <v>164710</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>373</v>
       </c>
       <c r="M16" s="7">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="N16" s="7">
-        <v>323160</v>
+        <v>325591</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +5584,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>10287</v>
+        <v>14134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>6045</v>
+        <v>6606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>16332</v>
+        <v>20740</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +5635,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>172433</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5650,10 +5650,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="I18" s="7">
-        <v>167059</v>
+        <v>171316</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5665,10 +5665,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="N18" s="7">
-        <v>339492</v>
+        <v>346331</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5724,7 +5724,7 @@
         <v>1279063</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>387</v>
@@ -5775,7 +5775,7 @@
         <v>96373</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>395</v>

--- a/data/trans_orig/IP1003-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AEF9F75-28C0-48F5-AFC5-5EE7573DDA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8773753F-AEC2-4F9E-8C9E-74223F00985D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1D811DC2-233F-440C-8B8F-A1E5AAFF0C99}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B022CCEE-F4C0-41CA-8605-B919B7C69D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
   <si>
     <t>Menores según si padecen alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,13 +71,43 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>90,94%</t>
   </si>
   <si>
-    <t>76,07%</t>
+    <t>76,71%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -86,49 +116,19 @@
     <t>82,14%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1099 +137,1102 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
     <t>91,23%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>92,19%</t>
   </si>
   <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
     <t>92,51%</t>
   </si>
   <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1243,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1336,39 +1339,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1420,7 +1423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1531,13 +1534,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1546,6 +1542,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1610,19 +1613,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731EF2B-EBFD-4CDF-AB24-7ED144DF17B5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B1F619-E71E-41FE-A51E-C77040A167BD}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1739,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>23140</v>
+        <v>2304</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1754,10 +1777,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>18666</v>
+        <v>4058</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1769,10 +1792,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>41806</v>
+        <v>6362</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1790,10 +1813,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>2304</v>
+        <v>23140</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1805,10 +1828,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>4058</v>
+        <v>18666</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1820,10 +1843,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>6362</v>
+        <v>41806</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1894,10 +1917,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>116436</v>
+        <v>11197</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1909,10 +1932,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>108183</v>
+        <v>7819</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1924,10 +1947,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>224619</v>
+        <v>19016</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1945,10 +1968,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="D8" s="7">
-        <v>11197</v>
+        <v>116436</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1960,10 +1983,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>7819</v>
+        <v>108183</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1975,10 +1998,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>29</v>
+        <v>338</v>
       </c>
       <c r="N8" s="7">
-        <v>19016</v>
+        <v>224619</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2049,49 +2072,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>196243</v>
+        <v>15899</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>184189</v>
+        <v>10974</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>592</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>380432</v>
+        <v>26873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,49 +2123,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="D11" s="7">
-        <v>15899</v>
+        <v>196243</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I11" s="7">
-        <v>10974</v>
+        <v>184189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
+        <v>592</v>
       </c>
       <c r="N11" s="7">
-        <v>26873</v>
+        <v>380432</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,55 +2221,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>140694</v>
+        <v>8963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>131380</v>
+        <v>6437</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>436</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>272074</v>
+        <v>15400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,49 +2278,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="D14" s="7">
-        <v>8963</v>
+        <v>140694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>6437</v>
+        <v>131380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>436</v>
       </c>
       <c r="N14" s="7">
-        <v>15400</v>
+        <v>272074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,55 +2376,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>196220</v>
+        <v>11604</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>197964</v>
+        <v>11351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>548</v>
+        <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>394185</v>
+        <v>22954</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,49 +2433,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="D17" s="7">
-        <v>11604</v>
+        <v>196220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="I17" s="7">
-        <v>11351</v>
+        <v>197964</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>32</v>
+        <v>548</v>
       </c>
       <c r="N17" s="7">
-        <v>22954</v>
+        <v>394185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,49 +2537,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1011</v>
+        <v>75</v>
       </c>
       <c r="D19" s="7">
-        <v>672733</v>
+        <v>49967</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>957</v>
+        <v>61</v>
       </c>
       <c r="I19" s="7">
-        <v>640382</v>
+        <v>40639</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1968</v>
+        <v>136</v>
       </c>
       <c r="N19" s="7">
-        <v>1313115</v>
+        <v>90606</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,49 +2588,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>75</v>
+        <v>1011</v>
       </c>
       <c r="D20" s="7">
-        <v>49967</v>
+        <v>672733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>61</v>
+        <v>957</v>
       </c>
       <c r="I20" s="7">
-        <v>40639</v>
+        <v>640382</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>136</v>
+        <v>1968</v>
       </c>
       <c r="N20" s="7">
-        <v>90606</v>
+        <v>1313115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,6 +2682,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2679,8 +2707,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29195B-D8D9-4176-A960-50D001909EA4}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF766AF7-0534-4172-BDA4-E508136C2417}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2696,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2797,49 +2825,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21477</v>
+        <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>46932</v>
+        <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,49 +2876,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>896</v>
+        <v>21477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>134</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>896</v>
+        <v>46932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,49 +2980,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>120636</v>
+        <v>7007</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9040</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="7">
+        <v>22</v>
+      </c>
+      <c r="N7" s="7">
+        <v>16047</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="7">
-        <v>104978</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="7">
-        <v>318</v>
-      </c>
-      <c r="N7" s="7">
-        <v>225614</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,49 +3031,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>7007</v>
+        <v>120636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="7">
         <v>147</v>
       </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
       <c r="I8" s="7">
-        <v>9040</v>
+        <v>104978</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="N8" s="7">
-        <v>16047</v>
+        <v>225614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,49 +3135,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>203979</v>
+        <v>17999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
-        <v>307</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>198734</v>
+        <v>6664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
-        <v>603</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>402712</v>
+        <v>24664</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,49 +3186,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="D11" s="7">
-        <v>17999</v>
+        <v>203978</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="I11" s="7">
-        <v>6664</v>
+        <v>198734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
-        <v>35</v>
+        <v>603</v>
       </c>
       <c r="N11" s="7">
-        <v>24664</v>
+        <v>402712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,7 +3240,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3256,55 +3284,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>157523</v>
+        <v>8462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>147140</v>
+        <v>7072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
-        <v>470</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>304663</v>
+        <v>15534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,49 +3341,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>8462</v>
+        <v>157523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>7072</v>
+        <v>147140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>470</v>
       </c>
       <c r="N14" s="7">
-        <v>15534</v>
+        <v>304663</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,55 +3439,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>194882</v>
+        <v>12200</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>200783</v>
+        <v>9517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>528</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>395665</v>
+        <v>21717</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,49 +3496,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="D17" s="7">
-        <v>12200</v>
+        <v>194882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I17" s="7">
-        <v>9517</v>
+        <v>200783</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
-        <v>28</v>
+        <v>528</v>
       </c>
       <c r="N17" s="7">
-        <v>21717</v>
+        <v>395665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,49 +3600,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1001</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>702474</v>
+        <v>45668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
-        <v>971</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>673112</v>
+        <v>33189</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
-        <v>1972</v>
+        <v>111</v>
       </c>
       <c r="N19" s="7">
-        <v>1375586</v>
+        <v>78857</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,49 +3651,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>65</v>
+        <v>1001</v>
       </c>
       <c r="D20" s="7">
-        <v>45668</v>
+        <v>702474</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>971</v>
       </c>
       <c r="I20" s="7">
-        <v>33189</v>
+        <v>673112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
-        <v>111</v>
+        <v>1972</v>
       </c>
       <c r="N20" s="7">
-        <v>78857</v>
+        <v>1375586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,6 +3745,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3737,8 +3770,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072E9EB3-BF4B-4512-A1C3-128A326391D7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB1E26F-5A8E-482A-8A8E-F782F64CF8DA}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3754,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3855,49 +3888,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>20461</v>
+        <v>2066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>46035</v>
+        <v>2066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +3939,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>2066</v>
+        <v>20461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>2066</v>
+        <v>46035</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,49 +4043,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>113779</v>
+        <v>8723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>108522</v>
+        <v>2658</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>222300</v>
+        <v>11382</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,49 +4094,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>8723</v>
+        <v>113779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>2658</v>
+        <v>108522</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="N8" s="7">
-        <v>11382</v>
+        <v>222300</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,49 +4198,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>208642</v>
+        <v>15717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>195655</v>
+        <v>11592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
-        <v>626</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>404297</v>
+        <v>27309</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,49 +4249,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="D11" s="7">
-        <v>15717</v>
+        <v>208642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="I11" s="7">
-        <v>11592</v>
+        <v>195655</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="N11" s="7">
-        <v>27309</v>
+        <v>404297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,55 +4347,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>160783</v>
+        <v>5890</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>150274</v>
+        <v>5723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
-        <v>489</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>311057</v>
+        <v>11613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,49 +4404,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>5890</v>
+        <v>160783</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7">
-        <v>5723</v>
+        <v>150274</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>489</v>
       </c>
       <c r="N14" s="7">
-        <v>11613</v>
+        <v>311057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,55 +4502,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>197466</v>
+        <v>8270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
-        <v>268</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>197328</v>
+        <v>10092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
-        <v>547</v>
+        <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>394794</v>
+        <v>18362</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,49 +4559,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="D17" s="7">
-        <v>8270</v>
+        <v>197466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="I17" s="7">
-        <v>10092</v>
+        <v>197328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>547</v>
       </c>
       <c r="N17" s="7">
-        <v>18362</v>
+        <v>394794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,49 +4663,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1012</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>706244</v>
+        <v>38600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>1015</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>672239</v>
+        <v>32132</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
-        <v>2027</v>
+        <v>99</v>
       </c>
       <c r="N19" s="7">
-        <v>1378483</v>
+        <v>70732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,49 +4714,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>1012</v>
       </c>
       <c r="D20" s="7">
-        <v>38600</v>
+        <v>706244</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I20" s="7">
+        <v>672239</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>32132</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2027</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1378483</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="M20" s="7">
-        <v>99</v>
-      </c>
-      <c r="N20" s="7">
-        <v>70732</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,6 +4808,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4795,8 +4833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896D6618-BF45-481C-BE63-D2071EED5CCD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BD6D94-3A0F-4A24-B8A3-70A6BB41B7A4}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4812,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4913,49 +4951,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>10605</v>
+        <v>2093</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2833</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13954</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4926</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="7">
-        <v>41</v>
-      </c>
-      <c r="N4" s="7">
-        <v>24559</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,49 +5002,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>2093</v>
+        <v>10605</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13954</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2833</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>41</v>
+      </c>
+      <c r="N5" s="7">
+        <v>24559</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4926</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,49 +5106,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>103939</v>
+        <v>9755</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6813</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H7" s="7">
-        <v>156</v>
-      </c>
-      <c r="I7" s="7">
-        <v>97082</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>23</v>
+      </c>
+      <c r="N7" s="7">
+        <v>16568</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="M7" s="7">
-        <v>296</v>
-      </c>
-      <c r="N7" s="7">
-        <v>201021</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +5157,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>9755</v>
+        <v>103939</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>156</v>
+      </c>
+      <c r="I8" s="7">
+        <v>97082</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6813</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" s="7">
+        <v>296</v>
+      </c>
+      <c r="N8" s="7">
+        <v>201021</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="M8" s="7">
-        <v>23</v>
-      </c>
-      <c r="N8" s="7">
-        <v>16568</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,49 +5261,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>227076</v>
+        <v>23110</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7">
+        <v>14696</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H10" s="7">
-        <v>260</v>
-      </c>
-      <c r="I10" s="7">
-        <v>177656</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>50</v>
+      </c>
+      <c r="N10" s="7">
+        <v>37806</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="M10" s="7">
-        <v>573</v>
-      </c>
-      <c r="N10" s="7">
-        <v>404732</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +5312,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>23110</v>
+        <v>227076</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>260</v>
+      </c>
+      <c r="I11" s="7">
+        <v>177656</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H11" s="7">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14696</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>573</v>
+      </c>
+      <c r="N11" s="7">
+        <v>404732</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="M11" s="7">
-        <v>50</v>
-      </c>
-      <c r="N11" s="7">
-        <v>37806</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,55 +5410,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>162146</v>
+        <v>10287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>359</v>
       </c>
       <c r="H13" s="7">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>161014</v>
+        <v>6045</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>323160</v>
+        <v>16332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +5467,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>10287</v>
+        <v>162146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>6045</v>
+        <v>161014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="N14" s="7">
-        <v>16332</v>
+        <v>323160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,55 +5565,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>160882</v>
+        <v>14134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>164710</v>
+        <v>6606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>449</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>325591</v>
+        <v>20740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +5622,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D17" s="7">
-        <v>14134</v>
+        <v>160882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="I17" s="7">
-        <v>6606</v>
+        <v>164710</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
-        <v>28</v>
+        <v>449</v>
       </c>
       <c r="N17" s="7">
-        <v>20740</v>
+        <v>325591</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,49 +5726,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>900</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7">
-        <v>664647</v>
+        <v>59379</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
-        <v>887</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>614415</v>
+        <v>36994</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
-        <v>1787</v>
+        <v>127</v>
       </c>
       <c r="N19" s="7">
-        <v>1279063</v>
+        <v>96373</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5777,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>74</v>
+        <v>900</v>
       </c>
       <c r="D20" s="7">
-        <v>59379</v>
+        <v>664647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
-        <v>53</v>
+        <v>887</v>
       </c>
       <c r="I20" s="7">
-        <v>36994</v>
+        <v>614415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
-        <v>127</v>
+        <v>1787</v>
       </c>
       <c r="N20" s="7">
-        <v>96373</v>
+        <v>1279063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,6 +5871,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1003-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8773753F-AEC2-4F9E-8C9E-74223F00985D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81798D86-1920-4592-9ED4-FD25F55E5298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B022CCEE-F4C0-41CA-8605-B919B7C69D8A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{281D229E-CC68-4312-AF6A-99E19857FAF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="394">
   <si>
     <t>Menores según si padecen alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>9,06%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1129 +107,1117 @@
     <t>90,94%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>10,22%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>8,35%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>89,78%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>94,06%</t>
@@ -1644,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B1F619-E71E-41FE-A51E-C77040A167BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792F83D3-5BAA-42F5-9F0E-5224A018FEC6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2546,10 +2534,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -2558,13 +2546,13 @@
         <v>40639</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>136</v>
@@ -2573,13 +2561,13 @@
         <v>90606</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2582,13 @@
         <v>672733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>957</v>
@@ -2609,13 +2597,13 @@
         <v>640382</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1968</v>
@@ -2624,13 +2612,13 @@
         <v>1313115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2674,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2707,7 +2695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF766AF7-0534-4172-BDA4-E508136C2417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECAB01-5F6A-49E7-8D33-44397AA0D020}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2724,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2846,13 +2834,13 @@
         <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2861,13 +2849,13 @@
         <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,10 +2870,10 @@
         <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -2897,13 +2885,13 @@
         <v>21477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -2912,13 +2900,13 @@
         <v>46932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2974,13 @@
         <v>7007</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3001,13 +2989,13 @@
         <v>9040</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3016,13 +3004,13 @@
         <v>16047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3025,13 @@
         <v>120636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -3052,13 +3040,13 @@
         <v>104978</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>318</v>
@@ -3067,13 +3055,13 @@
         <v>225614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3129,13 @@
         <v>17999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3156,13 +3144,13 @@
         <v>6664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -3171,13 +3159,13 @@
         <v>24664</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,16 +3177,16 @@
         <v>296</v>
       </c>
       <c r="D11" s="7">
-        <v>203978</v>
+        <v>203979</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>307</v>
@@ -3207,13 +3195,13 @@
         <v>198734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>603</v>
@@ -3222,13 +3210,13 @@
         <v>402712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3228,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3296,13 +3284,13 @@
         <v>8462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3311,13 +3299,13 @@
         <v>7072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3326,13 +3314,13 @@
         <v>15534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3335,13 @@
         <v>157523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>229</v>
@@ -3362,13 +3350,13 @@
         <v>147140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>470</v>
@@ -3377,13 +3365,13 @@
         <v>304663</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3439,13 @@
         <v>12200</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3466,13 +3454,13 @@
         <v>9517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -3481,13 +3469,13 @@
         <v>21717</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3490,13 @@
         <v>194882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>263</v>
@@ -3517,13 +3505,13 @@
         <v>200783</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -3532,13 +3520,13 @@
         <v>395665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3594,13 @@
         <v>45668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -3621,13 +3609,13 @@
         <v>33189</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -3639,10 +3627,10 @@
         <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3645,13 @@
         <v>702474</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>971</v>
@@ -3672,13 +3660,13 @@
         <v>673112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>1972</v>
@@ -3690,10 +3678,10 @@
         <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,7 +3737,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3770,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB1E26F-5A8E-482A-8A8E-F782F64CF8DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D71F61A-0AC9-4130-A767-3AA91CE154C1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3787,7 +3775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3909,13 +3897,13 @@
         <v>2066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3924,13 +3912,13 @@
         <v>2066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,10 +3933,10 @@
         <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3960,13 +3948,13 @@
         <v>20461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -3975,13 +3963,13 @@
         <v>46035</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4037,13 @@
         <v>8723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4064,13 +4052,13 @@
         <v>2658</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4079,13 +4067,13 @@
         <v>11382</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4088,13 @@
         <v>113779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -4115,13 +4103,13 @@
         <v>108522</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>313</v>
@@ -4130,13 +4118,13 @@
         <v>222300</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4192,13 @@
         <v>15717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4219,13 +4207,13 @@
         <v>11592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4234,13 +4222,13 @@
         <v>27309</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4243,13 @@
         <v>208642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="H11" s="7">
         <v>316</v>
@@ -4270,13 +4258,13 @@
         <v>195655</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>626</v>
@@ -4285,13 +4273,13 @@
         <v>404297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,10 +4350,10 @@
         <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4374,13 +4362,13 @@
         <v>5723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4389,13 +4377,13 @@
         <v>11613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4398,13 @@
         <v>160783</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -4425,13 +4413,13 @@
         <v>150274</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>489</v>
@@ -4440,13 +4428,13 @@
         <v>311057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4502,13 @@
         <v>8270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4529,13 +4517,13 @@
         <v>10092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4544,13 +4532,13 @@
         <v>18362</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4553,13 @@
         <v>197466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -4580,13 +4568,13 @@
         <v>197328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -4595,13 +4583,13 @@
         <v>394794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4657,13 @@
         <v>38600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -4684,13 +4672,13 @@
         <v>32132</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -4699,13 +4687,13 @@
         <v>70732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4708,13 @@
         <v>706244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>1015</v>
@@ -4735,13 +4723,13 @@
         <v>672239</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="M20" s="7">
         <v>2027</v>
@@ -4750,13 +4738,13 @@
         <v>1378483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,7 +4800,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BD6D94-3A0F-4A24-B8A3-70A6BB41B7A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F207EA-99CB-4695-A460-C459F6B1C1F2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4850,7 +4838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4957,13 +4945,13 @@
         <v>2093</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4972,13 +4960,13 @@
         <v>2833</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4987,13 +4975,13 @@
         <v>4926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +4996,13 @@
         <v>10605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5023,13 +5011,13 @@
         <v>13954</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -5038,13 +5026,13 @@
         <v>24559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5100,13 @@
         <v>9755</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5127,13 +5115,13 @@
         <v>6813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5142,13 +5130,13 @@
         <v>16568</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5151,13 @@
         <v>103939</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>156</v>
@@ -5178,13 +5166,13 @@
         <v>97082</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>296</v>
@@ -5282,13 +5270,13 @@
         <v>14696</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -5297,13 +5285,13 @@
         <v>37806</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5306,13 @@
         <v>227076</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -5333,13 +5321,13 @@
         <v>177656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -5348,13 +5336,13 @@
         <v>404732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5410,13 @@
         <v>10287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5437,13 +5425,13 @@
         <v>6045</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -5452,13 +5440,13 @@
         <v>16332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5461,13 @@
         <v>162146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -5488,13 +5476,13 @@
         <v>161014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -5503,13 +5491,13 @@
         <v>323160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5565,13 @@
         <v>14134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5592,13 +5580,13 @@
         <v>6606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -5610,10 +5598,10 @@
         <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5616,13 @@
         <v>160882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>230</v>
@@ -5643,13 +5631,13 @@
         <v>164710</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>449</v>
@@ -5661,10 +5649,10 @@
         <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5720,13 @@
         <v>59379</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -5747,13 +5735,13 @@
         <v>36994</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -5762,13 +5750,13 @@
         <v>96373</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5771,13 @@
         <v>664647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>887</v>
@@ -5798,13 +5786,13 @@
         <v>614415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>1787</v>
@@ -5813,13 +5801,13 @@
         <v>1279063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,7 +5863,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1003-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81798D86-1920-4592-9ED4-FD25F55E5298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C361BFEA-8D26-4E3D-B021-06C9E62E9CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{281D229E-CC68-4312-AF6A-99E19857FAF5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EC002F1E-83A9-42E4-ABFB-87B59510C523}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="346">
   <si>
     <t>Menores según si padecen alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1159 +68,1015 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>94,34%</t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1488,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792F83D3-5BAA-42F5-9F0E-5224A018FEC6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A98CC9-29BC-4BE9-971F-F248C0202A28}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1750,10 +1606,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>2304</v>
+        <v>11877</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1765,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>4058</v>
+        <v>13502</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1780,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>6362</v>
+        <v>25378</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1801,10 +1657,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>23140</v>
+        <v>126849</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1816,10 +1672,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>18666</v>
+        <v>139575</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1831,10 +1687,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>392</v>
       </c>
       <c r="N5" s="7">
-        <v>41806</v>
+        <v>266425</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1852,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1867,10 +1723,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1882,10 +1738,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1905,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>11197</v>
+        <v>10974</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1920,10 +1776,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>7819</v>
+        <v>15899</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1935,10 +1791,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>19016</v>
+        <v>26873</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1956,10 +1812,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>116436</v>
+        <v>184189</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1971,10 +1827,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="I8" s="7">
-        <v>108183</v>
+        <v>196243</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1986,10 +1842,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>338</v>
+        <v>592</v>
       </c>
       <c r="N8" s="7">
-        <v>224619</v>
+        <v>380432</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2007,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1878,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2037,10 +1893,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2060,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>15899</v>
+        <v>6437</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2075,10 +1931,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>10974</v>
+        <v>8963</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2090,10 +1946,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>26873</v>
+        <v>15400</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2111,10 +1967,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>196243</v>
+        <v>131380</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2126,10 +1982,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>184189</v>
+        <v>140694</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2141,10 +1997,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>592</v>
+        <v>436</v>
       </c>
       <c r="N11" s="7">
-        <v>380432</v>
+        <v>272074</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2162,10 +2018,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2177,10 +2033,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2192,10 +2048,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2215,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>8963</v>
+        <v>11351</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2230,10 +2086,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>6437</v>
+        <v>11604</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2245,10 +2101,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>15400</v>
+        <v>22954</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2266,10 +2122,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>140694</v>
+        <v>197964</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2281,10 +2137,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="I14" s="7">
-        <v>131380</v>
+        <v>196220</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2296,10 +2152,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>436</v>
+        <v>548</v>
       </c>
       <c r="N14" s="7">
-        <v>272074</v>
+        <v>394185</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2317,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2347,10 +2203,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2364,55 +2220,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>11604</v>
+        <v>40639</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>75</v>
+      </c>
+      <c r="I16" s="7">
+        <v>49967</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11351</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>136</v>
+      </c>
+      <c r="N16" s="7">
+        <v>90606</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>32</v>
-      </c>
-      <c r="N16" s="7">
-        <v>22954</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,49 +2277,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>289</v>
+        <v>957</v>
       </c>
       <c r="D17" s="7">
-        <v>196220</v>
+        <v>640382</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1011</v>
+      </c>
+      <c r="I17" s="7">
+        <v>672733</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>259</v>
-      </c>
-      <c r="I17" s="7">
-        <v>197964</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1968</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1313115</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>548</v>
-      </c>
-      <c r="N17" s="7">
-        <v>394185</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,10 +2328,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2487,10 +2343,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2502,10 +2358,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2518,171 +2374,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>75</v>
-      </c>
-      <c r="D19" s="7">
-        <v>49967</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>61</v>
-      </c>
-      <c r="I19" s="7">
-        <v>40639</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>136</v>
-      </c>
-      <c r="N19" s="7">
-        <v>90606</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1011</v>
-      </c>
-      <c r="D20" s="7">
-        <v>672733</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="7">
-        <v>957</v>
-      </c>
-      <c r="I20" s="7">
-        <v>640382</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1968</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1313115</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2695,8 +2395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECAB01-5F6A-49E7-8D33-44397AA0D020}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C377E43B-3FFC-467D-A732-C73F0F576174}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2712,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2813,49 +2513,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>896</v>
+        <v>7007</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>896</v>
+        <v>16943</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,49 +2564,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>126455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I5" s="7">
-        <v>21477</v>
+        <v>146091</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="N5" s="7">
-        <v>46932</v>
+        <v>272546</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,10 +2615,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2930,10 +2630,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2945,10 +2645,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2971,46 +2671,46 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>7007</v>
+        <v>6664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>9040</v>
+        <v>17999</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>16047</v>
+        <v>24664</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,49 +2719,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="D8" s="7">
-        <v>120636</v>
+        <v>198734</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="I8" s="7">
-        <v>104978</v>
+        <v>203978</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
-        <v>318</v>
+        <v>603</v>
       </c>
       <c r="N8" s="7">
-        <v>225614</v>
+        <v>402712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3085,10 +2785,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3100,10 +2800,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3123,49 +2823,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7072</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="7">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8462</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="7">
         <v>25</v>
       </c>
-      <c r="D10" s="7">
-        <v>17999</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6664</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M10" s="7">
-        <v>35</v>
-      </c>
       <c r="N10" s="7">
-        <v>24664</v>
+        <v>15534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,49 +2874,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>203979</v>
+        <v>147140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="I11" s="7">
-        <v>198734</v>
+        <v>157523</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>603</v>
+        <v>470</v>
       </c>
       <c r="N11" s="7">
-        <v>402712</v>
+        <v>304663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,10 +2925,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154212</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3240,10 +2940,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3255,10 +2955,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>495</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320197</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3278,49 +2978,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>8462</v>
+        <v>9517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>7072</v>
+        <v>12200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>15534</v>
+        <v>21717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,49 +3029,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D14" s="7">
-        <v>157523</v>
+        <v>200783</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="I14" s="7">
-        <v>147140</v>
+        <v>194882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="N14" s="7">
-        <v>304663</v>
+        <v>395665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,10 +3080,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3395,10 +3095,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154212</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3410,10 +3110,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320197</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3427,55 +3127,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>12200</v>
+        <v>33189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>9517</v>
+        <v>45668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N16" s="7">
-        <v>21717</v>
+        <v>78857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,49 +3184,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>265</v>
+        <v>971</v>
       </c>
       <c r="D17" s="7">
-        <v>194882</v>
+        <v>673112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>263</v>
+        <v>1001</v>
       </c>
       <c r="I17" s="7">
-        <v>200783</v>
+        <v>702474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>528</v>
+        <v>1972</v>
       </c>
       <c r="N17" s="7">
-        <v>395665</v>
+        <v>1375586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1017</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706301</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3550,10 +3250,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3565,10 +3265,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2083</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1454443</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3581,171 +3281,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>65</v>
-      </c>
-      <c r="D19" s="7">
-        <v>45668</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>46</v>
-      </c>
-      <c r="I19" s="7">
-        <v>33189</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>111</v>
-      </c>
-      <c r="N19" s="7">
-        <v>78857</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1001</v>
-      </c>
-      <c r="D20" s="7">
-        <v>702474</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="7">
-        <v>971</v>
-      </c>
-      <c r="I20" s="7">
-        <v>673112</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1972</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1375586</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706301</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2083</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1454443</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3758,8 +3302,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D71F61A-0AC9-4130-A767-3AA91CE154C1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F039C69-F052-4CA4-93DE-6D9487477433}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3775,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3876,49 +3420,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>2066</v>
+        <v>8723</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>2066</v>
+        <v>13447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,49 +3471,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>128983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I5" s="7">
-        <v>20461</v>
+        <v>139353</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>52</v>
+        <v>365</v>
       </c>
       <c r="N5" s="7">
-        <v>46035</v>
+        <v>268336</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,10 +3522,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3993,10 +3537,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4008,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4031,49 +3575,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>8723</v>
+        <v>11592</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>2658</v>
+        <v>15717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>11382</v>
+        <v>27309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,49 +3626,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="D8" s="7">
-        <v>113779</v>
+        <v>195655</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="I8" s="7">
-        <v>108522</v>
+        <v>208642</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="N8" s="7">
-        <v>222300</v>
+        <v>404297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4148,10 +3692,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4163,10 +3707,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4186,49 +3730,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>15717</v>
+        <v>5723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5890</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M10" s="7">
         <v>18</v>
       </c>
-      <c r="I10" s="7">
-        <v>11592</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M10" s="7">
-        <v>40</v>
-      </c>
       <c r="N10" s="7">
-        <v>27309</v>
+        <v>11613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,49 +3781,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="D11" s="7">
-        <v>208642</v>
+        <v>150274</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="I11" s="7">
-        <v>195655</v>
+        <v>160783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>626</v>
+        <v>489</v>
       </c>
       <c r="N11" s="7">
-        <v>404297</v>
+        <v>311057</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,10 +3832,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4303,10 +3847,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4318,10 +3862,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4341,49 +3885,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>5890</v>
+        <v>10092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>5723</v>
+        <v>8270</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
+        <v>24</v>
+      </c>
+      <c r="N13" s="7">
+        <v>18362</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>11613</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,49 +3936,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="D14" s="7">
-        <v>160783</v>
+        <v>197328</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
+        <v>279</v>
+      </c>
+      <c r="I14" s="7">
+        <v>197466</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" s="7">
+        <v>547</v>
+      </c>
+      <c r="N14" s="7">
+        <v>394794</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I14" s="7">
-        <v>150274</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M14" s="7">
-        <v>489</v>
-      </c>
-      <c r="N14" s="7">
-        <v>311057</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,10 +3987,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4458,10 +4002,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4473,10 +4017,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4490,55 +4034,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>8270</v>
+        <v>32132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>10092</v>
+        <v>38600</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="N16" s="7">
-        <v>18362</v>
+        <v>70732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,49 +4091,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>279</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="7">
-        <v>197466</v>
+        <v>672239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
+        <v>1012</v>
+      </c>
+      <c r="I17" s="7">
+        <v>706244</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2027</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1378483</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="I17" s="7">
-        <v>197328</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M17" s="7">
-        <v>547</v>
-      </c>
-      <c r="N17" s="7">
-        <v>394794</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4613,10 +4157,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4628,10 +4172,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4644,171 +4188,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>53</v>
-      </c>
-      <c r="D19" s="7">
-        <v>38600</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H19" s="7">
-        <v>46</v>
-      </c>
-      <c r="I19" s="7">
-        <v>32132</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M19" s="7">
-        <v>99</v>
-      </c>
-      <c r="N19" s="7">
-        <v>70732</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1012</v>
-      </c>
-      <c r="D20" s="7">
-        <v>706244</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I20" s="7">
-        <v>672239</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2027</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1378483</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4821,8 +4209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F207EA-99CB-4695-A460-C459F6B1C1F2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB92C72-BE85-460C-9C91-525C976AD457}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4838,7 +4226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4939,49 +4327,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>2093</v>
+        <v>9462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>2833</v>
+        <v>12650</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>4926</v>
+        <v>22112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,49 +4378,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7">
-        <v>10605</v>
+        <v>107818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7">
-        <v>13954</v>
+        <v>126760</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>24559</v>
+        <v>234578</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,10 +4429,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5056,10 +4444,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>139410</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5071,10 +4459,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>256690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5094,49 +4482,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>9755</v>
+        <v>14615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>6813</v>
+        <v>23932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>16568</v>
+        <v>38547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,49 +4533,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D8" s="7">
-        <v>103939</v>
+        <v>175897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="I8" s="7">
-        <v>97082</v>
+        <v>231103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
-        <v>296</v>
+        <v>573</v>
       </c>
       <c r="N8" s="7">
-        <v>201021</v>
+        <v>407001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,10 +4584,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>113694</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5211,10 +4599,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5226,10 +4614,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>217589</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5249,49 +4637,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>23110</v>
+        <v>5959</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10836</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M10" s="7">
         <v>20</v>
       </c>
-      <c r="I10" s="7">
-        <v>14696</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="M10" s="7">
-        <v>50</v>
-      </c>
       <c r="N10" s="7">
-        <v>37806</v>
+        <v>16795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,49 +4688,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>217</v>
+      </c>
+      <c r="D11" s="7">
+        <v>182795</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11" s="7">
+        <v>211</v>
+      </c>
+      <c r="I11" s="7">
+        <v>173658</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M11" s="7">
+        <v>428</v>
+      </c>
+      <c r="N11" s="7">
+        <v>356454</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="D11" s="7">
-        <v>227076</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H11" s="7">
-        <v>260</v>
-      </c>
-      <c r="I11" s="7">
-        <v>177656</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M11" s="7">
-        <v>573</v>
-      </c>
-      <c r="N11" s="7">
-        <v>404732</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,10 +4739,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>188754</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5366,10 +4754,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>184494</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5381,10 +4769,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>373249</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5404,49 +4792,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>10287</v>
+        <v>6566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>6045</v>
+        <v>15217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>16332</v>
+        <v>21783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,49 +4843,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>162146</v>
+        <v>160771</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I14" s="7">
-        <v>161014</v>
+        <v>166021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="N14" s="7">
-        <v>323160</v>
+        <v>326793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,10 +4894,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>172433</v>
+        <v>167337</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5521,10 +4909,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167059</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5536,10 +4924,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>339492</v>
+        <v>348576</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5553,55 +4941,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>14134</v>
+        <v>36603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>6606</v>
+        <v>62635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>20740</v>
+        <v>99238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,49 +4998,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>219</v>
+        <v>887</v>
       </c>
       <c r="D17" s="7">
-        <v>160882</v>
+        <v>627281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="I17" s="7">
-        <v>164710</v>
+        <v>697543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>449</v>
+        <v>1787</v>
       </c>
       <c r="N17" s="7">
-        <v>325591</v>
+        <v>1324824</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,10 +5049,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>663884</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5676,10 +5064,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>239</v>
+        <v>974</v>
       </c>
       <c r="I18" s="7">
-        <v>171316</v>
+        <v>760178</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5691,10 +5079,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>477</v>
+        <v>1914</v>
       </c>
       <c r="N18" s="7">
-        <v>346331</v>
+        <v>1424062</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5707,171 +5095,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>74</v>
-      </c>
-      <c r="D19" s="7">
-        <v>59379</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>36994</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="M19" s="7">
-        <v>127</v>
-      </c>
-      <c r="N19" s="7">
-        <v>96373</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>900</v>
-      </c>
-      <c r="D20" s="7">
-        <v>664647</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="7">
-        <v>887</v>
-      </c>
-      <c r="I20" s="7">
-        <v>614415</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1787</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1279063</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>974</v>
-      </c>
-      <c r="D21" s="7">
-        <v>724026</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>940</v>
-      </c>
-      <c r="I21" s="7">
-        <v>651409</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1914</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1375436</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
